--- a/学生信息表.xlsx
+++ b/学生信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92046FD7-4C0C-4A67-8CA7-E1C54C04E57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DEC3584-220F-4977-9C57-B02CB493C6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11170" xr2:uid="{B206D64F-D42E-46E8-B0E1-E96382CC9FFC}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{E94628F6-CEF8-4A55-B758-89741FFC3746}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -489,7 +489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F09DBA-3EAF-4813-8D0C-464F93D94577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E74DD8E-F0C9-4A56-8FDE-A79DFBCCA241}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373DF6AB-FEA0-4F39-8547-E2B98279DD9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF48D62-D7D4-45A6-B8EA-43A61B1DCCF3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/学生信息表.xlsx
+++ b/学生信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DEC3584-220F-4977-9C57-B02CB493C6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE51AAC-2F65-4AAD-9EDA-18494711AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{E94628F6-CEF8-4A55-B758-89741FFC3746}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" xr2:uid="{30855D05-5F1E-4BA0-972F-407431928309}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>学号</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>李世岷</t>
+  </si>
+  <si>
+    <t>赢正军</t>
   </si>
   <si>
     <t>朱伟铭</t>
@@ -489,8 +492,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E74DD8E-F0C9-4A56-8FDE-A79DFBCCA241}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA151C8-59E9-41F8-90D0-044F4EBA7128}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,7 +536,7 @@
         <v>24</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,7 +841,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>101105</v>
+        <v>101104</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -850,18 +853,18 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>2.99</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>101106</v>
+        <v>101105</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -870,9 +873,29 @@
         <v>26</v>
       </c>
       <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>101106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
         <v>17</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>3.27</v>
       </c>
     </row>
@@ -883,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF48D62-D7D4-45A6-B8EA-43A61B1DCCF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1883A2D-F43F-41B6-AF13-CDB37E187194}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
